--- a/Xports/UD_French-FQB/VERB-no-direct-obj.xlsx
+++ b/Xports/UD_French-FQB/VERB-no-direct-obj.xlsx
@@ -20731,7 +20731,7 @@
         <v>2858</v>
       </c>
       <c r="O235">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:15">
